--- a/Resultados_auto.xlsx
+++ b/Resultados_auto.xlsx
@@ -13,7 +13,79 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
   <si>
     <t>Linear Nic</t>
   </si>
@@ -85,40 +157,40 @@
   <dimension ref="A1:H7"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="true"/>
+    <col min="1" max="1" width="13.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.7109375" customWidth="true"/>
-    <col min="3" max="3" width="13.42578125" customWidth="true"/>
-    <col min="4" max="4" width="14.42578125" customWidth="true"/>
-    <col min="5" max="5" width="16.7109375" customWidth="true"/>
-    <col min="6" max="6" width="17.42578125" customWidth="true"/>
-    <col min="7" max="7" width="17.28515625" customWidth="true"/>
-    <col min="8" max="8" width="18" customWidth="true"/>
+    <col min="3" max="3" width="13.37890625" customWidth="true"/>
+    <col min="4" max="4" width="14.37890625" customWidth="true"/>
+    <col min="5" max="5" width="16.15625" customWidth="true"/>
+    <col min="6" max="6" width="16.82421875" customWidth="true"/>
+    <col min="7" max="7" width="16.7109375" customWidth="true"/>
+    <col min="8" max="8" width="17.37890625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">

--- a/Resultados_auto.xlsx
+++ b/Resultados_auto.xlsx
@@ -13,7 +13,79 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
   <si>
     <t>Linear Nic</t>
   </si>
@@ -169,28 +241,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2">

--- a/Resultados_auto.xlsx
+++ b/Resultados_auto.xlsx
@@ -13,7 +13,103 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
   <si>
     <t>Linear Nic</t>
   </si>
@@ -241,28 +337,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2">

--- a/Resultados_auto.xlsx
+++ b/Resultados_auto.xlsx
@@ -13,7 +13,751 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="336">
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
   <si>
     <t>Linear Nic</t>
   </si>
@@ -337,28 +1081,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>80</v>
+        <v>328</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>81</v>
+        <v>329</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>82</v>
+        <v>330</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>83</v>
+        <v>331</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>84</v>
+        <v>332</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>85</v>
+        <v>333</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>86</v>
+        <v>334</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>87</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2">

--- a/Resultados_auto.xlsx
+++ b/Resultados_auto.xlsx
@@ -13,7 +13,79 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="360">
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
   <si>
     <t>Linear Nic</t>
   </si>
@@ -1069,196 +1141,196 @@
   <dimension ref="A1:H7"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.37890625" customWidth="true"/>
+    <col min="1" max="1" width="13.42578125" customWidth="true"/>
     <col min="2" max="2" width="12.7109375" customWidth="true"/>
-    <col min="3" max="3" width="13.37890625" customWidth="true"/>
-    <col min="4" max="4" width="14.37890625" customWidth="true"/>
-    <col min="5" max="5" width="16.15625" customWidth="true"/>
-    <col min="6" max="6" width="16.82421875" customWidth="true"/>
-    <col min="7" max="7" width="16.7109375" customWidth="true"/>
-    <col min="8" max="8" width="17.37890625" customWidth="true"/>
+    <col min="3" max="3" width="13.42578125" customWidth="true"/>
+    <col min="4" max="4" width="14.42578125" customWidth="true"/>
+    <col min="5" max="5" width="16.7109375" customWidth="true"/>
+    <col min="6" max="6" width="17.42578125" customWidth="true"/>
+    <col min="7" max="7" width="17.28515625" customWidth="true"/>
+    <col min="8" max="8" width="18" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>329</v>
+        <v>353</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>330</v>
+        <v>354</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>331</v>
+        <v>355</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>332</v>
+        <v>356</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>334</v>
+        <v>358</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>335</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.9401417750081994</v>
+        <v>0.94014177500819951</v>
       </c>
       <c r="B2" s="0">
-        <v>0.84975141950661992</v>
+        <v>0.84975141950661892</v>
       </c>
       <c r="C2" s="0">
-        <v>0.88549491766434474</v>
+        <v>0.88549491766434496</v>
       </c>
       <c r="D2" s="0">
-        <v>0.71277244397911566</v>
+        <v>0.71277244397912032</v>
       </c>
       <c r="E2" s="0">
-        <v>0.53906798129804356</v>
+        <v>0.53906798129833833</v>
       </c>
       <c r="F2" s="0">
-        <v>0.49528336375245913</v>
+        <v>0.4952833637520247</v>
       </c>
       <c r="G2" s="0">
-        <v>0.22342937468181712</v>
+        <v>0.22342937468172916</v>
       </c>
       <c r="H2" s="0">
-        <v>0.20889262205676595</v>
+        <v>0.2088926220566675</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.70416882376452883</v>
+        <v>0.70416882376452838</v>
       </c>
       <c r="B3" s="0">
-        <v>0.89695153595103216</v>
+        <v>0.89695153595103372</v>
       </c>
       <c r="C3" s="0">
-        <v>0.21659513763803681</v>
+        <v>0.21659513763803309</v>
       </c>
       <c r="D3" s="0">
-        <v>0.79141811447101773</v>
+        <v>0.79141811447102106</v>
       </c>
       <c r="E3" s="0">
-        <v>0.12489537098404106</v>
+        <v>0.12489537098500039</v>
       </c>
       <c r="F3" s="0">
-        <v>0.50309714854914767</v>
+        <v>0.50309714854873899</v>
       </c>
       <c r="G3" s="0">
-        <v>-0.21254967767674202</v>
+        <v>-0.21254967767591854</v>
       </c>
       <c r="H3" s="0">
-        <v>0.099059307175511382</v>
+        <v>0.099059307175243014</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.60779265342113742</v>
+        <v>0.60779265342113731</v>
       </c>
       <c r="B4" s="0">
         <v>0.70996962625618343</v>
       </c>
       <c r="C4" s="0">
-        <v>0.53243884210530701</v>
+        <v>0.53243884210530723</v>
       </c>
       <c r="D4" s="0">
-        <v>0.65274670439193716</v>
+        <v>0.65274670439193672</v>
       </c>
       <c r="E4" s="0">
-        <v>0.28276789667312691</v>
+        <v>0.28276789667319108</v>
       </c>
       <c r="F4" s="0">
-        <v>0.51202196097396291</v>
+        <v>0.51202196097374109</v>
       </c>
       <c r="G4" s="0">
-        <v>0.054375064452518884</v>
+        <v>0.054375064452511584</v>
       </c>
       <c r="H4" s="0">
-        <v>0.27297012947349064</v>
+        <v>0.2729701294734409</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.91535433817541279</v>
+        <v>0.9153543381754129</v>
       </c>
       <c r="B5" s="0">
-        <v>0.93108008692443855</v>
+        <v>0.93108008692443844</v>
       </c>
       <c r="C5" s="0">
-        <v>0.91558882029119215</v>
+        <v>0.91558882029119226</v>
       </c>
       <c r="D5" s="0">
-        <v>0.92416113874245276</v>
+        <v>0.92416113874245143</v>
       </c>
       <c r="E5" s="0">
-        <v>0.47514001057882055</v>
+        <v>0.47514001057865446</v>
       </c>
       <c r="F5" s="0">
-        <v>0.8310875386253852</v>
+        <v>0.831087538625501</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.15225272893086436</v>
+        <v>-0.15225272893086447</v>
       </c>
       <c r="H5" s="0">
-        <v>0.46157662387965115</v>
+        <v>0.4615766238798033</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.11176894849504221</v>
+        <v>-0.11176894849511568</v>
       </c>
       <c r="B6" s="0">
-        <v>0.32338285289867919</v>
+        <v>0.32338285289868168</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.11396957651297365</v>
+        <v>-0.11396957651304131</v>
       </c>
       <c r="D6" s="0">
-        <v>-0.082780953077502065</v>
+        <v>-0.082780953077556785</v>
       </c>
       <c r="E6" s="0">
-        <v>0.16699258016088189</v>
+        <v>0.16699258016087912</v>
       </c>
       <c r="F6" s="0">
-        <v>0.59682447336253275</v>
+        <v>0.59682447336253297</v>
       </c>
       <c r="G6" s="0">
-        <v>-0.0059093942997469912</v>
+        <v>-0.0059093942997453441</v>
       </c>
       <c r="H6" s="0">
-        <v>0.13423785603583513</v>
+        <v>0.13423785603583391</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.91679804894209571</v>
+        <v>0.9167980489420956</v>
       </c>
       <c r="B7" s="0">
-        <v>0.8106365673198509</v>
+        <v>0.81063656731985079</v>
       </c>
       <c r="C7" s="0">
-        <v>0.8979798996766436</v>
+        <v>0.89797989967664382</v>
       </c>
       <c r="D7" s="0">
-        <v>0.77528991565868588</v>
+        <v>0.77528991565868677</v>
       </c>
       <c r="E7" s="0">
-        <v>0.49270983531200568</v>
+        <v>0.49270983531180718</v>
       </c>
       <c r="F7" s="0">
-        <v>0.59956865559073402</v>
+        <v>0.59956865559141337</v>
       </c>
       <c r="G7" s="0">
-        <v>-0.13732866069499944</v>
+        <v>-0.13732866069497435</v>
       </c>
       <c r="H7" s="0">
-        <v>0.29051228695654097</v>
+        <v>0.29051228695663417</v>
       </c>
     </row>
   </sheetData>

--- a/Resultados_auto.xlsx
+++ b/Resultados_auto.xlsx
@@ -13,7 +13,127 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="400">
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
   <si>
     <t>Linear Nic</t>
   </si>
@@ -1153,28 +1273,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>353</v>
+        <v>393</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>359</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2">

--- a/Resultados_auto.xlsx
+++ b/Resultados_auto.xlsx
@@ -13,7 +13,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="416">
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
   <si>
     <t>Linear Nic</t>
   </si>
@@ -1273,28 +1321,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2">
